--- a/data/ipm.xlsx
+++ b/data/ipm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webapp\streamlit\instagar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02D9E7A-2C2C-4800-B957-F9EEA222D924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD327EA9-441F-4B20-9C7D-CBC46E7246BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,10 +87,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -439,7 +438,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -480,16 +479,19 @@
       <c r="A2">
         <v>2010</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>70.34</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>10.36</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>6.68</v>
       </c>
-      <c r="F2" s="2">
+      <c r="E2">
+        <v>6150</v>
+      </c>
+      <c r="F2">
         <v>60.23</v>
       </c>
     </row>
@@ -497,16 +499,19 @@
       <c r="A3">
         <v>2011</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>70.39</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>10.52</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>6.71</v>
       </c>
-      <c r="F3" s="2">
+      <c r="E3">
+        <v>6195</v>
+      </c>
+      <c r="F3">
         <v>60.55</v>
       </c>
       <c r="G3" s="1">
@@ -517,16 +522,19 @@
       <c r="A4">
         <v>2012</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>70.430000000000007</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>10.85</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>6.75</v>
       </c>
-      <c r="F4" s="2">
+      <c r="E4">
+        <v>6233</v>
+      </c>
+      <c r="F4">
         <v>61.04</v>
       </c>
       <c r="G4" s="1">
@@ -537,16 +545,19 @@
       <c r="A5">
         <v>2013</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>70.47</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>11.17</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>6.8</v>
       </c>
-      <c r="F5" s="2">
+      <c r="E5">
+        <v>6355</v>
+      </c>
+      <c r="F5">
         <v>61.67</v>
       </c>
       <c r="G5" s="1">
@@ -557,19 +568,19 @@
       <c r="A6">
         <v>2014</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>70.489999999999995</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>11.62</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>6.83</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>6372</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>62.23</v>
       </c>
       <c r="G6" s="1">
@@ -580,19 +591,19 @@
       <c r="A7">
         <v>2015</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>70.69</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>11.65</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>6.84</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>6875</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>63.21</v>
       </c>
       <c r="G7" s="1">
@@ -603,19 +614,19 @@
       <c r="A8">
         <v>2016</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>70.760000000000005</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>11.69</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>6.88</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>7079</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>63.64</v>
       </c>
       <c r="G8" s="1">
@@ -626,19 +637,19 @@
       <c r="A9">
         <v>2017</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>70.84</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>11.73</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>7.28</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>7270</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>64.52</v>
       </c>
       <c r="G9" s="1">
@@ -649,19 +660,19 @@
       <c r="A10">
         <v>2018</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>71.03</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>11.8</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>7.5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>7597</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>65.42</v>
       </c>
       <c r="G10" s="1">
@@ -672,19 +683,19 @@
       <c r="A11">
         <v>2019</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>71.22</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>11.82</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>7.51</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>8099</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>66.22</v>
       </c>
       <c r="G11" s="1">
@@ -695,19 +706,19 @@
       <c r="A12">
         <v>2020</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>71.41</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>11.91</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>7.52</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>7876</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>67.2</v>
       </c>
       <c r="G12" s="1">
@@ -718,19 +729,19 @@
       <c r="A13">
         <v>2021</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>71.59</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>12.03</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>7.53</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>7961</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>67.53</v>
       </c>
       <c r="G13" s="1">
@@ -741,16 +752,16 @@
       <c r="A14">
         <v>2022</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>71.849999999999994</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>12.15</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>7.83</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>8227</v>
       </c>
       <c r="F14">
@@ -764,16 +775,16 @@
       <c r="A15">
         <v>2023</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>72.069999999999993</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>12.16</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>7.84</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>8685</v>
       </c>
       <c r="F15">
@@ -787,16 +798,16 @@
       <c r="A16">
         <v>2024</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>72.28</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>12.17</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>7.85</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>9168</v>
       </c>
       <c r="F16">
